--- a/data/timelines_data_v4.xlsx
+++ b/data/timelines_data_v4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ucbtds4\R_Repositories\rodent_borne_zoonoses\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2260A32-26F2-4FD8-AC69-5CA2A3BA189D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB070435-2B26-4330-9776-7D2FA4509488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="9144" windowWidth="2448" windowHeight="564" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -985,8 +985,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D70" sqref="D70"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D84" sqref="D84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2642,7 +2642,7 @@
         <v>1851</v>
       </c>
       <c r="D83" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E83" t="s">
         <v>171</v>
